--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:28:48+00:00</t>
+    <t>2022-07-14T23:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:35:37+00:00</t>
+    <t>2022-07-15T00:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T00:31:00+00:00</t>
+    <t>2022-07-15T01:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:40:07+00:00</t>
+    <t>2022-07-15T03:58:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T03:58:01+00:00</t>
+    <t>2022-07-15T09:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T09:57:08+00:00</t>
+    <t>2022-07-18T23:59:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T23:59:16+00:00</t>
+    <t>2022-07-19T02:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:14:28+00:00</t>
+    <t>2022-07-19T08:05:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T08:05:59+00:00</t>
+    <t>2022-07-20T22:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T22:47:26+00:00</t>
+    <t>2022-07-21T02:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T02:38:40+00:00</t>
+    <t>2022-07-22T12:50:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T12:50:03+00:00</t>
+    <t>2022-07-25T13:41:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -522,7 +522,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest_Injection|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -681,7 +681,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Group|Device|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
 </t>
   </si>
   <si>
@@ -720,7 +720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
@@ -837,7 +837,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam)
 </t>
   </si>
   <si>
@@ -925,7 +925,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_LabResult)
 </t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:41:20+00:00</t>
+    <t>2022-07-26T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:48:24+00:00</t>
+    <t>2022-07-29T00:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T00:48:21+00:00</t>
+    <t>2022-08-01T01:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T01:14:07+00:00</t>
+    <t>2022-08-01T09:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:08:31+00:00</t>
+    <t>2022-08-01T10:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T10:54:34+00:00</t>
+    <t>2022-08-03T00:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T00:30:07+00:00</t>
+    <t>2022-08-03T13:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:55:30+00:00</t>
+    <t>2022-08-06T07:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T07:57:57+00:00</t>
+    <t>2022-08-06T08:15:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T08:15:13+00:00</t>
+    <t>2022-08-08T12:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="340">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:51:35+00:00</t>
+    <t>2022-08-15T09:08:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,20 +256,18 @@
     <t/>
   </si>
   <si>
-    <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports　診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP_CORE】検体検査結果レポートのプロフィール</t>
+    <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports　診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP-Core仕様】検体検査結果レポートのプロフィール</t>
   </si>
   <si>
     <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.
 患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
 わせ　
-【JP_CORE】
-検体検査結果レポートのプロフィール</t>
+【JP-Core仕様】検体検査結果レポートのプロフィール</t>
   </si>
   <si>
     <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.
 これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
-【JP-CORE】
-DIagnosticReportリソースの共通プロフィール</t>
+【JP-Core仕様】DiagnosticReportリソースの共通プロフィール</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -492,11 +490,10 @@
   <si>
     <t>Usually assigned by the Information System of the diagnostic service provider (filler id).
 発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。
-【JP-CORE】
-検体検査結果の場合、「依頼者オーダ番号(ORC-2)」だけで十分&lt;br/&gt;
-・複数の容器で1つの結果のまとまり&lt;br/&gt;
-・容器ごとに結果が出るタイミングはずれる&lt;br/&gt;
-・オーダ側でオーダ番号が1つにまとまるか別になるかは有り得る&lt;br/&gt;</t>
+【JP-Core仕様】検体検査結果の場合、「依頼者オーダ番号(ORC-2)」だけで十分
+・複数の容器で1つの結果のまとまり
+・容器ごとに結果が出るタイミングはずれる
+・オーダ側でオーダ番号が1つにまとまるか別になるかは有り得る</t>
   </si>
   <si>
     <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.
@@ -535,8 +532,7 @@
   <si>
     <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.
 通常、１結果ごとに１つの検査依頼があるが、状況によっては、複数の検査要求に対して１レポートがある場合がある。また 1つの検査依頼に対して複数のレポートが作成される場合もあることに注意。
-【JP-CORE】
-ServiceRequestリソースを参照(ObservationLabresultと同様）&lt;br/&gt;</t>
+【JP-Core仕様】ServiceRequestリソースを参照(ObservationLabResultと同様）</t>
   </si>
   <si>
     <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
@@ -561,12 +557,12 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-有れば：ORC-5&lt;br/&gt;
-もしくは&lt;br/&gt;
-無ければ：OBR-25("F")のAND結果&lt;br/&gt;
-　例：全部"F"なら"F"、それ以外の場合は要検討&lt;br/&gt;
-設定する値は、DiagnosticReportStatus（コード）から1つ選ぶ&lt;br/&gt;
-コード体系：HL7 Table 0038のコードと定義&lt;br/&gt;</t>
+有れば：ORC-5
+もしくは
+無ければ：OBR-25("F")のAND結果
+　例：全部"F"なら"F"、それ以外の場合は要検討
+設定する値は、DiagnosticReportStatus（コード）から1つ選ぶ
+コード体系：HL7 Table 0038のコードと定義</t>
   </si>
   <si>
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
@@ -613,8 +609,15 @@
   <si>
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.
 さまざまなカテゴリ化スキームを使用して、複数のカテゴリを使用できる。粒度のレベルは、それぞれの値セットのカテゴリの概念によって定義される。 DiagnosticReport.codeのメタデータや用語の階層を使用して、よりきめ細かいフィルタリングを実行できる。
-【JP-CORE】
-Diagnostic Service Section Codesの"LAB"を使用</t>
+【JP-Core仕様】Diagnostic Service Section Codesの"LAB"を使用</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0074"/&gt;
+    &lt;code value="LAB"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>example</t>
@@ -651,9 +654,17 @@
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 すべてのターミのロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。
-【JP-CORE】
-LOINCの臨床検査の分類コードを割り当てる。&lt;br/&gt;
+【JP-Core仕様】LOINCの臨床検査の分類コードを割り当てる。
 検査レポートの利用用途に合わせて、JLAC10のコードを振っても良い。</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="11502-2"/&gt;
+    &lt;display value="Laboratory report"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Codes that describe Diagnostic Reports.</t>
@@ -692,10 +703,9 @@
 レポートの対象、常にではないが、通常、患者。ただし、診断サービスは、他のさまざまなソースから収集された検体を対象とすることもある。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-CORE】
-Patientリソースを参照&lt;br/&gt;</t>
+【JP-Core仕様】Patientリソースを参照</t>
   </si>
   <si>
     <t>SHALL know the subject context.</t>
@@ -733,11 +743,7 @@
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter  but still be tied to the context of the encounter  (e.g. pre-admission laboratory tests).
 通常、イベントが発生したEncounterであるが、一部のイベントは、エンEncounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。
-【JP-CORE】
-Encounterリソースを参照&lt;br/&gt;
-&lt;br/&gt;
-【議論】&lt;br/&gt;
-入院の場合には、ラベル印刷日時とは限らない。&lt;br/&gt;</t>
+【JP-Core仕様】入院の場合には、ラベル印刷日時とは限らない。</t>
   </si>
   <si>
     <t>Links the request to the Encounter context.</t>
@@ -775,8 +781,7 @@
   <si>
     <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.
 診断手順が患者に対して実行された場合、これは実施された時刻。対象が検体である場合は、検体採取時間から診断関連時刻を導き出すことができるが、検体情報が常に入手できるとは限らず、検体と診断関連時刻の正確な関係は必ずしも自明ではない。
-【JP-CORE】
-検体採取時間&lt;br/&gt;</t>
+【JP-Core仕様】検体採取時間</t>
   </si>
   <si>
     <t>Need to know where in the patient history to file/present this report.</t>
@@ -814,8 +819,7 @@
   <si>
     <t>May be different from the update time of the resource itself, because that is the status of the record (potentially a secondary copy), not the actual release time of the report.
 リソース自体の更新時刻とは異なる場合がある。これは、レポートの実際の提供時刻ではなく、リソース自体の更新時刻はレコード（場合によってはセカンダリコピー）のステータスの更新時刻となるため。
-【JP-CORE】
-このデータが出来た時間&lt;br/&gt;</t>
+【JP-Core仕様】このデータが出来た時間</t>
   </si>
   <si>
     <t>Clinicians need to be able to check the date that the report was released.</t>
@@ -850,8 +854,7 @@
   <si>
     <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.
 必ずしも１項目データ単位のデータソースまたは結果を解釈した主体でなない。臨床レポートに責任をもつ主体のこと。
-【JP-CORE】
-検査に関わった人もしくは組織&lt;br/&gt;</t>
+【JP-Core仕様】検査に関わった人もしくは組織</t>
   </si>
   <si>
     <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
@@ -885,8 +888,7 @@
   <si>
     <t>Might not be the same entity that takes responsibility for the clinical report.
 レポートに責任を持つ主体とは異なる場合がある。
-【JP-CORE】
-検査責任者&lt;br/&gt;</t>
+【JP-Core仕様】検査責任者</t>
   </si>
   <si>
     <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
@@ -908,8 +910,7 @@
   <si>
     <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per observation or group.
 検査結果名称のコードを見れば検体情報が十分に判明するような場合には、この検体情報は冗長になる。複数の検体が関与する場合には、検査や検査グループごとに検体情報が記述されることがある。
-【JP-CORE】
-該当するspecimenを設定&lt;br/&gt;</t>
+【JP-Core仕様】該当するspecimenを設定</t>
   </si>
   <si>
     <t>Need to be able to report information about the collected specimens on which the report is based.</t>
@@ -938,8 +939,7 @@
   <si>
     <t>Observations can contain observations.
 Observationはobservationを含みうる。
-【JP-CORE】
-該当するObservationを設定&lt;br/&gt;</t>
+【JP-Core仕様】該当するObservationを設定</t>
   </si>
   <si>
     <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.
@@ -968,8 +968,7 @@
   <si>
     <t>ImagingStudy and the image element are somewhat overlapping - typically, the list of image references in the image element will also be found in one of the imaging study resources. However, each caters to different types of displays for different types of purposes. Neither, either, or both may be provided.
 ImagingStudyと画像要素は多少重複する。通常、画像要素内の画像参照のリストは、画像検査リソースのひとつにも存在する。。ただし、それぞれがさまざまなタイプの目的のためにさまざまなタイプのディスプレイに対応している。どちらも、どちらか、または両方を提供することはできない。
-【JP-CORE】
-使わない&lt;br/&gt;</t>
+【JP-Core仕様】使わない</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
@@ -993,8 +992,7 @@
 このレポートに関連する主要な画像のリスト。画像は通常、診断プロセス中に作成され、患者から直接か、調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
   </si>
   <si>
-    <t>【JP仕様】&lt;br/&gt;
-レポート1つに対して、複数の画像・コメントがぶら下がる&lt;br/&gt;</t>
+    <t>【JP-Core仕様】レポート1つに対して、複数の画像・コメントがぶら下がる</t>
   </si>
   <si>
     <t>Many diagnostic services include images in the report as part of their service.</t>
@@ -1054,8 +1052,7 @@
   </si>
   <si>
     <t>The comment should be displayed with the image. It would be common for the report to include additional discussion of the image contents in other sections such as the conclusion.
-【JP仕様】&lt;br/&gt;
-画像に対するコメント&lt;br/&gt;</t>
+【JP-Core仕様】画像に対するコメント</t>
   </si>
   <si>
     <t>The provider of the report should make a comment about each image included in the report.</t>
@@ -1077,9 +1074,8 @@
     <t>Reference to the image source.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-【JP仕様】&lt;br/&gt;
-画像に対するリンク&lt;br/&gt;</t>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+【JP-Core仕様】画像に対するリンク</t>
   </si>
   <si>
     <t>.value.reference</t>
@@ -1100,8 +1096,7 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-【JP仕様】&lt;br/&gt;
-原則使わない&lt;br/&gt;</t>
+【JP-Core仕様】原則使わない</t>
   </si>
   <si>
     <t>Need to be able to provide a conclusion that is not lost among the basic result data.</t>
@@ -1125,8 +1120,7 @@
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 すべてのターミのロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。
-【JP仕様】&lt;br/&gt;
-原則使わない&lt;br/&gt;</t>
+【JP-Core仕様】原則使わない</t>
   </si>
   <si>
     <t>Diagnosis codes provided as adjuncts to the report.</t>
@@ -1154,8 +1148,7 @@
   <si>
     <t>"application/pdf" is recommended as the most reliable and interoperable in this context.
 application / pdf」がこのコンテキストで最も信頼でき相互運用可能なものとして推奨される。
-【JP仕様】&lt;br/&gt;
-原則使わない&lt;br/&gt;</t>
+【JP-Core仕様】原則使わない</t>
   </si>
   <si>
     <t>Gives laboratory the ability to provide its own fully formatted report for clinical fidelity.</t>
@@ -1487,7 +1480,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="203.5234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="204.59375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3017,7 +3010,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>79</v>
@@ -3035,13 +3028,13 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>79</v>
@@ -3077,22 +3070,22 @@
         <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3114,13 +3107,13 @@
         <v>180</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3128,7 +3121,7 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>79</v>
@@ -3149,10 +3142,10 @@
         <v>112</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3170,7 +3163,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>88</v>
@@ -3185,25 +3178,25 @@
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3222,19 +3215,19 @@
         <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3283,7 +3276,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3298,25 +3291,25 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3335,19 +3328,19 @@
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -3396,7 +3389,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3411,25 +3404,25 @@
         <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3448,19 +3441,19 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -3509,7 +3502,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3524,25 +3517,25 @@
         <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3561,19 +3554,19 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -3622,7 +3615,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3640,22 +3633,22 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3674,19 +3667,19 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -3735,7 +3728,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3750,25 +3743,25 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3787,19 +3780,19 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -3848,7 +3841,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3863,21 +3856,21 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3900,19 +3893,19 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -3961,7 +3954,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3979,10 +3972,10 @@
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -3990,11 +3983,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4013,19 +4006,19 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4074,7 +4067,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4092,10 +4085,10 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4103,7 +4096,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4126,16 +4119,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4185,7 +4178,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4206,7 +4199,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4214,11 +4207,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4237,19 +4230,19 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4298,7 +4291,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4316,10 +4309,10 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4327,7 +4320,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4353,10 +4346,10 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4407,7 +4400,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4428,7 +4421,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4436,7 +4429,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4465,7 +4458,7 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>137</v>
@@ -4518,7 +4511,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4539,7 +4532,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4547,11 +4540,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4573,10 +4566,10 @@
         <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -4631,7 +4624,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4660,7 +4653,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4686,16 +4679,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4744,7 +4737,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4765,7 +4758,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4773,7 +4766,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4796,16 +4789,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4855,7 +4848,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>88</v>
@@ -4876,7 +4869,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4884,11 +4877,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4910,16 +4903,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -4968,7 +4961,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4986,10 +4979,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4997,7 +4990,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5023,13 +5016,13 @@
         <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5055,13 +5048,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5079,7 +5072,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5097,10 +5090,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5108,7 +5101,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5131,19 +5124,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5192,7 +5185,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5210,10 +5203,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T09:08:26+00:00</t>
+    <t>2022-08-17T12:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T12:11:07+00:00</t>
+    <t>2022-08-29T14:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,18 +256,17 @@
     <t/>
   </si>
   <si>
-    <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports　診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP-Core仕様】検体検査結果レポートのプロフィール</t>
+    <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports　診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP Core仕様】検体検査結果レポートのプロフィール</t>
   </si>
   <si>
     <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.
 患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
 わせ　
-【JP-Core仕様】検体検査結果レポートのプロフィール</t>
-  </si>
-  <si>
-    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.
-これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
-【JP-Core仕様】DiagnosticReportリソースの共通プロフィール</t>
+【JP Core仕様】検体検査結果レポートのプロフィール</t>
+  </si>
+  <si>
+    <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
+【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -490,14 +489,13 @@
   <si>
     <t>Usually assigned by the Information System of the diagnostic service provider (filler id).
 発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。
-【JP-Core仕様】検体検査結果の場合、「依頼者オーダ番号(ORC-2)」だけで十分
+【JP Core仕様】検体検査結果の場合、「依頼者オーダ番号(ORC-2)」だけで十分
 ・複数の容器で1つの結果のまとまり
 ・容器ごとに結果が出るタイミングはずれる
 ・オーダ側でオーダ番号が1つにまとまるか別になるかは有り得る</t>
   </si>
   <si>
-    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.
-発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。</t>
+    <t>発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -523,16 +521,15 @@
 </t>
   </si>
   <si>
-    <t>What was requested　元になった検査や診断の依頼</t>
-  </si>
-  <si>
-    <t>Details concerning a service requested.
-依頼されたサービス（検査や診断など）に関する詳細情報</t>
+    <t>元になった検査や診断の依頼</t>
+  </si>
+  <si>
+    <t>依頼されたサービス（検査や診断など）に関する詳細情報</t>
   </si>
   <si>
     <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.
 通常、１結果ごとに１つの検査依頼があるが、状況によっては、複数の検査要求に対して１レポートがある場合がある。また 1つの検査依頼に対して複数のレポートが作成される場合もあることに注意。
-【JP-Core仕様】ServiceRequestリソースを参照(ObservationLabResultと同様）</t>
+【JP Core仕様】ServiceRequestリソースを参照(ObservationLabResultと同様）</t>
   </si>
   <si>
     <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
@@ -600,16 +597,15 @@
 </t>
   </si>
   <si>
-    <t>Service category　サービスカテゴリー</t>
-  </si>
-  <si>
-    <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.
-レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
+    <t>サービスカテゴリー</t>
+  </si>
+  <si>
+    <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.
 さまざまなカテゴリ化スキームを使用して、複数のカテゴリを使用できる。粒度のレベルは、それぞれの値セットのカテゴリの概念によって定義される。 DiagnosticReport.codeのメタデータや用語の階層を使用して、よりきめ細かいフィルタリングを実行できる。
-【JP-Core仕様】Diagnostic Service Section Codesの"LAB"を使用</t>
+【JP Core仕様】Diagnostic Service Section Codesの"LAB"を使用</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -645,16 +641,15 @@
 </t>
   </si>
   <si>
-    <t>Name/Code for this diagnostic report　この診断レポートの名前/コード</t>
-  </si>
-  <si>
-    <t>A code or name that describes this diagnostic report.
-この診断レポートを説明するコードまたは名前。</t>
+    <t>この診断レポートの名前/コード</t>
+  </si>
+  <si>
+    <t>この診断レポートを説明するコードまたは名前。</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 すべてのターミのロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。
-【JP-Core仕様】LOINCの臨床検査の分類コードを割り当てる。
+【JP Core仕様】LOINCの臨床検査の分類コードを割り当てる。
 検査レポートの利用用途に合わせて、JLAC10のコードを振っても良い。</t>
   </si>
   <si>
@@ -699,13 +694,12 @@
     <t>The subject of the report - usually, but not always, the patient　レポートの対象、常にではないが、通常は患者</t>
   </si>
   <si>
-    <t>The subject of the report. Usually, but not always, this is a patient. However, diagnostic services also perform analyses on specimens collected from a variety of other sources.
-レポートの対象、常にではないが、通常、患者。ただし、診断サービスは、他のさまざまなソースから収集された検体を対象とすることもある。</t>
+    <t>レポートの対象、常にではないが、通常、患者。ただし、診断サービスは、他のさまざまなソースから収集された検体を対象とすることもある。</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-Core仕様】Patientリソースを参照</t>
+【JP Core仕様】Patientリソースを参照</t>
   </si>
   <si>
     <t>SHALL know the subject context.</t>
@@ -734,16 +728,15 @@
 </t>
   </si>
   <si>
-    <t>Health care event when test ordered　依頼時におけるヘルスケアイベント（受診など）</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) which this DiagnosticReport is about.
-このDiagnosticReportが対象とするヘルスケアイベント（患者とヘルスケアプロバイダーの相互関係など）。受診、入院、診察など。</t>
+    <t>依頼時におけるヘルスケアイベント（受診など）</t>
+  </si>
+  <si>
+    <t>このDiagnosticReportが対象とするヘルスケアイベント（患者とヘルスケアプロバイダーの相互関係など）。受診、入院、診察など。</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter  but still be tied to the context of the encounter  (e.g. pre-admission laboratory tests).
 通常、イベントが発生したEncounterであるが、一部のイベントは、エンEncounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。
-【JP-Core仕様】入院の場合には、ラベル印刷日時とは限らない。</t>
+【JP Core仕様】入院の場合には、ラベル印刷日時とは限らない。</t>
   </si>
   <si>
     <t>Links the request to the Encounter context.</t>
@@ -772,16 +765,15 @@
 Period</t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for report　臨床的に関連する時刻または時間</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.
-観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
+    <t>臨床的に関連する時刻または時間</t>
+  </si>
+  <si>
+    <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
   </si>
   <si>
     <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.
 診断手順が患者に対して実行された場合、これは実施された時刻。対象が検体である場合は、検体採取時間から診断関連時刻を導き出すことができるが、検体情報が常に入手できるとは限らず、検体と診断関連時刻の正確な関係は必ずしも自明ではない。
-【JP-Core仕様】検体採取時間</t>
+【JP Core仕様】検体採取時間</t>
   </si>
   <si>
     <t>Need to know where in the patient history to file/present this report.</t>
@@ -810,16 +802,15 @@
 </t>
   </si>
   <si>
-    <t>DateTime this version was made　このバージョンが作成された日時</t>
-  </si>
-  <si>
-    <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.
-このバージョンのレポートが医療者に提供された日時。通常、レポートがレビューおよび検証された後となる。</t>
+    <t>このバージョンが作成された日時</t>
+  </si>
+  <si>
+    <t>このバージョンのレポートが医療者に提供された日時。通常、レポートがレビューおよび検証・確定された後となる。</t>
   </si>
   <si>
     <t>May be different from the update time of the resource itself, because that is the status of the record (potentially a secondary copy), not the actual release time of the report.
 リソース自体の更新時刻とは異なる場合がある。これは、レポートの実際の提供時刻ではなく、リソース自体の更新時刻はレコード（場合によってはセカンダリコピー）のステータスの更新時刻となるため。
-【JP-Core仕様】このデータが出来た時間</t>
+【JP Core仕様】このデータが出来た時間</t>
   </si>
   <si>
     <t>Clinicians need to be able to check the date that the report was released.</t>
@@ -845,16 +836,15 @@
 </t>
   </si>
   <si>
-    <t>Responsible Diagnostic Service　レポート内容に責任をもつ診断的サービス</t>
-  </si>
-  <si>
-    <t>The diagnostic service that is responsible for issuing the report.
-レポートの作成発行に責任をもつ診断サービス。</t>
+    <t>レポート内容に責任をもつ診断的サービス</t>
+  </si>
+  <si>
+    <t>レポートの作成発行に責任をもつ診断サービス。</t>
   </si>
   <si>
     <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.
 必ずしも１項目データ単位のデータソースまたは結果を解釈した主体でなない。臨床レポートに責任をもつ主体のこと。
-【JP-Core仕様】検査に関わった人もしくは組織</t>
+【JP Core仕様】検査に関わった人もしくは組織</t>
   </si>
   <si>
     <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
@@ -879,16 +869,15 @@
 Reported by</t>
   </si>
   <si>
-    <t>Primary result interpreter　結果の一次解釈者</t>
-  </si>
-  <si>
-    <t>The practitioner or organization that is responsible for the report's conclusions and interpretations.
-レポートの結論と解釈に責任を持つ医療者あるいは組織。</t>
+    <t>結果の一次解釈者</t>
+  </si>
+  <si>
+    <t>レポートの結論と解釈に責任を持つ医療者あるいは組織。</t>
   </si>
   <si>
     <t>Might not be the same entity that takes responsibility for the clinical report.
 レポートに責任を持つ主体とは異なる場合がある。
-【JP-Core仕様】検査責任者</t>
+【JP Core仕様】検査責任者</t>
   </si>
   <si>
     <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
@@ -901,16 +890,15 @@
 </t>
   </si>
   <si>
-    <t>Specimens this report is based on　レポートのもとになった検体</t>
-  </si>
-  <si>
-    <t>Details about the specimens on which this diagnostic report is based.
-この診断レポートのもとになった検体に関する詳細情報。</t>
+    <t>レポートのもとになった検体</t>
+  </si>
+  <si>
+    <t>この診断レポートのもとになった検体に関する詳細情報。</t>
   </si>
   <si>
     <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per observation or group.
 検査結果名称のコードを見れば検体情報が十分に判明するような場合には、この検体情報は冗長になる。複数の検体が関与する場合には、検査や検査グループごとに検体情報が記述されることがある。
-【JP-Core仕様】該当するspecimenを設定</t>
+【JP Core仕様】該当するspecimenを設定</t>
   </si>
   <si>
     <t>Need to be able to report information about the collected specimens on which the report is based.</t>
@@ -930,7 +918,7 @@
 </t>
   </si>
   <si>
-    <t>Observations　検査結果</t>
+    <t>検査結果。Observationsリソースが参照される。</t>
   </si>
   <si>
     <t>[Observations](observation.html)  that are part of this diagnostic report.
@@ -939,11 +927,10 @@
   <si>
     <t>Observations can contain observations.
 Observationはobservationを含みうる。
-【JP-Core仕様】該当するObservationを設定</t>
-  </si>
-  <si>
-    <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.
-個々の結果または結果のグループをサポートする必要がある。結果のグループ化は任意だが、意味がある場合にグループ化される。</t>
+【JP Core仕様】該当するObservationを設定</t>
+  </si>
+  <si>
+    <t>個々の結果または結果のグループをサポートする必要がある。結果のグループ化は任意だが、意味がある場合にグループ化される。</t>
   </si>
   <si>
     <t>OBXs</t>
@@ -959,16 +946,15 @@
 </t>
   </si>
   <si>
-    <t>Reference to full details of imaging associated with the diagnostic report　診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
-  </si>
-  <si>
-    <t>One or more links to full details of any imaging performed during the diagnostic investigation. Typically, this is imaging performed by DICOM enabled modalities, but this is not required. A fully enabled PACS viewer can use this information to provide views of the source images.
-診断的精査中に実施されたなんらかの画像検査の詳細情報へのひとつ以上のリンク。通常は、DICOM対応のモダリティーによって実施される画像検査であるが、必須ではない。完全対応のPACSビューワはこの情報を使用して原画像の一覧を提供できる。</t>
+    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
+  </si>
+  <si>
+    <t>診断的精査中に実施されたなんらかの画像検査の詳細情報へのひとつ以上のリンク。通常は、DICOM対応のモダリティーによって実施される画像検査であるが、必須ではない。完全対応のPACSビューワはこの情報を使用して原画像の一覧を提供できる。</t>
   </si>
   <si>
     <t>ImagingStudy and the image element are somewhat overlapping - typically, the list of image references in the image element will also be found in one of the imaging study resources. However, each caters to different types of displays for different types of purposes. Neither, either, or both may be provided.
 ImagingStudyと画像要素は多少重複する。通常、画像要素内の画像参照のリストは、画像検査リソースのひとつにも存在する。。ただし、それぞれがさまざまなタイプの目的のためにさまざまなタイプのディスプレイに対応している。どちらも、どちらか、または両方を提供することはできない。
-【JP-Core仕様】使わない</t>
+【JP Core仕様】使わない</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
@@ -985,14 +971,13 @@
 </t>
   </si>
   <si>
-    <t>Key images associated with this report　このレポートに関連づけられたキー画像</t>
-  </si>
-  <si>
-    <t>A list of key images associated with this report. The images are generally created during the diagnostic process, and may be directly of the patient, or of treated specimens (i.e. slides of interest).
-このレポートに関連する主要な画像のリスト。画像は通常、診断プロセス中に作成され、患者から直接か、調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
-  </si>
-  <si>
-    <t>【JP-Core仕様】レポート1つに対して、複数の画像・コメントがぶら下がる</t>
+    <t>このレポートに関連づけられたキー画像</t>
+  </si>
+  <si>
+    <t>このレポートに関連する主要な画像のリスト。画像は通常、診断プロセス中に作成され、患者から直接か、調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】レポート1つに対して、複数の画像・コメントがぶら下がる</t>
   </si>
   <si>
     <t>Many diagnostic services include images in the report as part of their service.</t>
@@ -1052,7 +1037,7 @@
   </si>
   <si>
     <t>The comment should be displayed with the image. It would be common for the report to include additional discussion of the image contents in other sections such as the conclusion.
-【JP-Core仕様】画像に対するコメント</t>
+【JP Core仕様】画像に対するコメント</t>
   </si>
   <si>
     <t>The provider of the report should make a comment about each image included in the report.</t>
@@ -1075,7 +1060,7 @@
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-【JP-Core仕様】画像に対するリンク</t>
+【JP Core仕様】画像に対するリンク</t>
   </si>
   <si>
     <t>.value.reference</t>
@@ -1088,7 +1073,7 @@
 </t>
   </si>
   <si>
-    <t>Clinical conclusion (interpretation) of test results　検査結果の臨床的結論（解釈）</t>
+    <t>検査結果の臨床的結論（解釈）</t>
   </si>
   <si>
     <t>Concise and clinically contextualized summary conclusion (interpretation/impression) of the diagnostic report.
@@ -1096,7 +1081,7 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-【JP-Core仕様】原則使わない</t>
+【JP Core仕様】原則使わない</t>
   </si>
   <si>
     <t>Need to be able to provide a conclusion that is not lost among the basic result data.</t>
@@ -1111,16 +1096,15 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>Codes for the clinical conclusion of test results　検査結果の臨床的結論（解釈）用のコード</t>
-  </si>
-  <si>
-    <t>One or more codes that represent the summary conclusion (interpretation/impression) of the diagnostic report.
-診断レポートの要約的な結論（解釈/印象）を表す1つ以上のコード。</t>
+    <t>検査結果の臨床的結論（解釈）用のコード</t>
+  </si>
+  <si>
+    <t>診断レポートの要約的な結論（解釈/印象）を表す1つ以上のコード。</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 すべてのターミのロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。
-【JP-Core仕様】原則使わない</t>
+【JP Core仕様】原則使わない</t>
   </si>
   <si>
     <t>Diagnosis codes provided as adjuncts to the report.</t>
@@ -1139,16 +1123,15 @@
 </t>
   </si>
   <si>
-    <t>Entire report as issued　発行されたレポート全体</t>
-  </si>
-  <si>
-    <t>Rich text representation of the entire result as issued by the diagnostic service. Multiple formats are allowed but they SHALL be semantically equivalent.
-診断サービスによって発行された結果全体のリッチテキスト表現。複数のフォーマットが許可されるが、それらは意味的に同等である必要がある。</t>
+    <t>発行されたレポート全体</t>
+  </si>
+  <si>
+    <t>診断サービスによって発行された結果全体のリッチテキスト表現。複数のフォーマットが許可されるが、それらは意味的に同等である必要がある。</t>
   </si>
   <si>
     <t>"application/pdf" is recommended as the most reliable and interoperable in this context.
 application / pdf」がこのコンテキストで最も信頼でき相互運用可能なものとして推奨される。
-【JP-Core仕様】原則使わない</t>
+【JP Core仕様】原則使わない</t>
   </si>
   <si>
     <t>Gives laboratory the ability to provide its own fully formatted report for clinical fidelity.</t>
@@ -1480,7 +1463,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="204.59375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="204.515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="370">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -291,7 +291,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -489,10 +489,8 @@
   <si>
     <t>Usually assigned by the Information System of the diagnostic service provider (filler id).
 発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。
-【JP Core仕様】検体検査結果の場合、「依頼者オーダ番号(ORC-2)」だけで十分
-・複数の容器で1つの結果のまとまり
-・容器ごとに結果が出るタイミングはずれる
-・オーダ側でオーダ番号が1つにまとまるか別になるかは有り得る</t>
+【JP Core仕様】レポートをユニークに識別する識別子。依頼者オーダー番号と関連付ける場合が多い。
+検体検査の特性として、複数の容器の結果を含む。容器ごと（厳密には項目ごと）に結果のタイミングは異なる場合がある。</t>
   </si>
   <si>
     <t>発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。</t>
@@ -521,7 +519,7 @@
 </t>
   </si>
   <si>
-    <t>元になった検査や診断の依頼</t>
+    <t>元になった検査や診断の依頼。【詳細参照】</t>
   </si>
   <si>
     <t>依頼されたサービス（検査や診断など）に関する詳細情報</t>
@@ -597,10 +595,41 @@
 </t>
   </si>
   <si>
-    <t>サービスカテゴリー</t>
+    <t>サービスカテゴリー。【詳細参照】</t>
   </si>
   <si>
     <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
+  </si>
+  <si>
+    <t>さまざまなカテゴリ化スキームを使用して、複数のカテゴリを使用できる。粒度のレベルは、それぞれの値セットのカテゴリの概念によって定義される。 DiagnosticReport.codeのメタデータや用語の階層を使用して、よりきめ細かいフィルタリングを実行できる。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>OBR-24</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>laboratory</t>
   </si>
   <si>
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.
@@ -616,24 +645,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>OBR-24</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>DiagnosticReport.code</t>
   </si>
   <si>
@@ -641,7 +652,7 @@
 </t>
   </si>
   <si>
-    <t>この診断レポートの名前/コード</t>
+    <t>この診断レポートの名前/コード。【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートを説明するコードまたは名前。</t>
@@ -653,15 +664,6 @@
 検査レポートの利用用途に合わせて、JLAC10のコードを振っても良い。</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="11502-2"/&gt;
-    &lt;display value="Laboratory report"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>Codes that describe Diagnostic Reports.</t>
   </si>
   <si>
@@ -678,6 +680,112 @@
   </si>
   <si>
     <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>laboratoryCode</t>
+  </si>
+  <si>
+    <t>検体検査レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。【詳細参照】</t>
+  </si>
+  <si>
+    <t>検体検査レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。</t>
+  </si>
+  <si>
+    <t>推奨コードは必須ではない、派生先によるコード体系を作成し割り振ることを否定しない</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="11502-2"/&gt;
+  &lt;display value="Laboratory report"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>DiagnosticReport.subject</t>
@@ -687,7 +795,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Group|Device|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -728,7 +836,7 @@
 </t>
   </si>
   <si>
-    <t>依頼時におけるヘルスケアイベント（受診など）</t>
+    <t>依頼時におけるヘルスケアイベント（受診など）。【詳細参照】</t>
   </si>
   <si>
     <t>このDiagnosticReportが対象とするヘルスケアイベント（患者とヘルスケアプロバイダーの相互関係など）。受診、入院、診察など。</t>
@@ -765,7 +873,7 @@
 Period</t>
   </si>
   <si>
-    <t>臨床的に関連する時刻または時間</t>
+    <t>臨床的に関連する時刻または時間。【詳細参照】</t>
   </si>
   <si>
     <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
@@ -802,7 +910,7 @@
 </t>
   </si>
   <si>
-    <t>このバージョンが作成された日時</t>
+    <t>このバージョンが作成された日時。【詳細参照】</t>
   </si>
   <si>
     <t>このバージョンのレポートが医療者に提供された日時。通常、レポートがレビューおよび検証・確定された後となる。</t>
@@ -836,7 +944,7 @@
 </t>
   </si>
   <si>
-    <t>レポート内容に責任をもつ診断的サービス</t>
+    <t>レポート内容に責任をもつ診断的サービス。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの作成発行に責任をもつ診断サービス。</t>
@@ -869,7 +977,7 @@
 Reported by</t>
   </si>
   <si>
-    <t>結果の一次解釈者</t>
+    <t>結果の一次解釈者。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの結論と解釈に責任を持つ医療者あるいは組織。</t>
@@ -890,7 +998,7 @@
 </t>
   </si>
   <si>
-    <t>レポートのもとになった検体</t>
+    <t>レポートのもとになった検体。【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートのもとになった検体に関する詳細情報。</t>
@@ -918,7 +1026,7 @@
 </t>
   </si>
   <si>
-    <t>検査結果。Observationsリソースが参照される。</t>
+    <t>検査結果。Observationsリソースが参照される。【詳細参照】</t>
   </si>
   <si>
     <t>[Observations](observation.html)  that are part of this diagnostic report.
@@ -946,7 +1054,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
+    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照。【詳細参照】</t>
   </si>
   <si>
     <t>診断的精査中に実施されたなんらかの画像検査の詳細情報へのひとつ以上のリンク。通常は、DICOM対応のモダリティーによって実施される画像検査であるが、必須ではない。完全対応のPACSビューワはこの情報を使用して原画像の一覧を提供できる。</t>
@@ -971,7 +1079,7 @@
 </t>
   </si>
   <si>
-    <t>このレポートに関連づけられたキー画像</t>
+    <t>このレポートに関連づけられたキー画像。【詳細参照】</t>
   </si>
   <si>
     <t>このレポートに関連する主要な画像のリスト。画像は通常、診断プロセス中に作成され、患者から直接か、調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
@@ -989,25 +1097,7 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.media.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1073,7 +1163,7 @@
 </t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈）</t>
+    <t>検査結果の臨床的結論（解釈）。【詳細参照】</t>
   </si>
   <si>
     <t>Concise and clinically contextualized summary conclusion (interpretation/impression) of the diagnostic report.
@@ -1096,7 +1186,7 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈）用のコード</t>
+    <t>検査結果の臨床的結論（解釈）用のコード。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの要約的な結論（解釈/印象）を表す1つ以上のコード。</t>
@@ -1123,7 +1213,7 @@
 </t>
   </si>
   <si>
-    <t>発行されたレポート全体</t>
+    <t>発行されたレポート全体。【詳細参照】</t>
   </si>
   <si>
     <t>診断サービスによって発行された結果全体のリッチテキスト表現。複数のフォーマットが許可されるが、それらは意味的に同等である必要がある。</t>
@@ -1444,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1454,7 +1544,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.2109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1480,7 +1570,7 @@
     <col min="25" max="25" width="53.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2961,7 +3051,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>78</v>
@@ -2993,46 +3083,44 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W14" t="s" s="2">
+      <c r="X14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>178</v>
@@ -3053,22 +3141,24 @@
         <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3090,13 +3180,13 @@
         <v>180</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3104,10 +3194,10 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>79</v>
@@ -3122,13 +3212,13 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3146,13 +3236,13 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
@@ -3161,29 +3251,29 @@
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>88</v>
@@ -3198,20 +3288,18 @@
         <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3235,13 +3323,13 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3259,10 +3347,10 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
@@ -3274,25 +3362,25 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3308,23 +3396,19 @@
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3372,7 +3456,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3384,35 +3468,35 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -3421,23 +3505,21 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3473,59 +3555,59 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
@@ -3537,19 +3619,19 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -3586,25 +3668,23 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
@@ -3616,29 +3696,31 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -3650,19 +3732,19 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -3672,7 +3754,7 @@
         <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>79</v>
@@ -3711,7 +3793,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3726,32 +3808,32 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -3763,19 +3845,19 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -3824,13 +3906,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -3839,32 +3921,32 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -3873,22 +3955,22 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -3937,13 +4019,13 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -3952,32 +4034,32 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -3986,22 +4068,22 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4050,13 +4132,13 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -4065,32 +4147,32 @@
         <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4099,21 +4181,23 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4161,13 +4245,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4176,32 +4260,32 @@
         <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4213,19 +4297,19 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4274,13 +4358,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4292,29 +4376,29 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4323,19 +4407,23 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4383,40 +4471,40 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4432,21 +4520,23 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4494,7 +4584,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4506,28 +4596,28 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4540,25 +4630,25 @@
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -4607,7 +4697,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4619,16 +4709,16 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4640,14 +4730,14 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -4659,19 +4749,19 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4726,7 +4816,7 @@
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -4738,10 +4828,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4749,7 +4839,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4757,10 +4847,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -4769,19 +4859,19 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4831,13 +4921,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -4852,7 +4942,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4860,18 +4950,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -4880,22 +4970,22 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -4944,13 +5034,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -4962,10 +5052,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4973,7 +5063,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4984,7 +5074,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -4996,17 +5086,15 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>327</v>
+        <v>208</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5031,13 +5119,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5055,28 +5143,28 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>332</v>
+        <v>211</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5084,11 +5172,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5107,20 +5195,18 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>334</v>
+        <v>134</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>335</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>213</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5168,7 +5254,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5180,18 +5266,692 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI35" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AJ35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -842,9 +842,9 @@
     <t>このDiagnosticReportが対象とするヘルスケアイベント（患者とヘルスケアプロバイダーの相互関係など）。受診、入院、診察など。</t>
   </si>
   <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter  but still be tied to the context of the encounter  (e.g. pre-admission laboratory tests).
-通常、イベントが発生したEncounterであるが、一部のイベントは、エンEncounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。
-【JP Core仕様】入院の場合には、ラベル印刷日時とは限らない。</t>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
+【JP Core仕様】入院外来の区別や所在場所、担当診療科の情報に使用する。
+※本プロファイルの用途では通常は必須と考えられるが、ユースケースにより使用されない場合を考慮し、1..1に制約しない。</t>
   </si>
   <si>
     <t>Links the request to the Encounter context.</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -489,7 +489,7 @@
   <si>
     <t>Usually assigned by the Information System of the diagnostic service provider (filler id).
 発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。
-【JP Core仕様】レポートをユニークに識別する識別子。依頼者オーダー番号と関連付ける場合が多い。
+【JP Core仕様】レポートをユニークに識別する識別子。依頼者オーダ番号と関連付ける場合が多い。
 検体検査の特性として、複数の容器の結果を含む。容器ごと（厳密には項目ごと）に結果のタイミングは異なる場合がある。</t>
   </si>
   <si>
@@ -659,7 +659,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミのロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。
 【JP Core仕様】LOINCの臨床検査の分類コードを割り当てる。
 検査レポートの利用用途に合わせて、JLAC10のコードを振っても良い。</t>
   </si>
@@ -839,12 +839,12 @@
     <t>依頼時におけるヘルスケアイベント（受診など）。【詳細参照】</t>
   </si>
   <si>
-    <t>このDiagnosticReportが対象とするヘルスケアイベント（患者とヘルスケアプロバイダーの相互関係など）。受診、入院、診察など。</t>
+    <t>このDiagnosticReportが対象とするヘルスケアイベント（患者とヘルスケアプロバイダの相互関係など）。受診、入院、診察など。</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
 【JP Core仕様】入院外来の区別や所在場所、担当診療科の情報に使用する。
-※本プロファイルの用途では通常は必須と考えられるが、ユースケースにより使用されない場合を考慮し、1..1に制約しない。</t>
+※このプロファイルの用途では通常は必須と考えられるが、ユースケースにより使用されない場合を考慮し、1..1に制約しない。</t>
   </si>
   <si>
     <t>Links the request to the Encounter context.</t>
@@ -1193,7 +1193,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミのロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。
 【JP Core仕様】原則使わない</t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -267,10 +270,6 @@
   <si>
     <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
 【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1476,55 +1475,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1586,220 +1585,220 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>84</v>
@@ -1811,7 +1810,7 @@
         <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -1820,20 +1819,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>89</v>
@@ -1852,77 +1851,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -1931,20 +1930,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>89</v>
@@ -1961,77 +1960,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -2040,17 +2039,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>89</v>
@@ -2072,77 +2071,77 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2151,23 +2150,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>108</v>
@@ -2183,26 +2182,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>112</v>
@@ -2214,46 +2213,46 @@
         <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -2266,19 +2265,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>118</v>
@@ -2294,77 +2293,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>122</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -2377,19 +2376,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>126</v>
@@ -2405,77 +2404,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -2488,19 +2487,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>134</v>
@@ -2516,77 +2515,77 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -2599,19 +2598,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>134</v>
@@ -2629,77 +2628,77 @@
         <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -2712,16 +2711,16 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>89</v>
@@ -2742,62 +2741,62 @@
         <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>100</v>
@@ -2825,19 +2824,19 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>158</v>
@@ -2855,62 +2854,62 @@
         <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>100</v>
@@ -2925,7 +2924,7 @@
         <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -2934,7 +2933,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2944,7 +2943,7 @@
         <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>89</v>
@@ -2968,26 +2967,26 @@
         <v>170</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>171</v>
@@ -2999,19 +2998,19 @@
         <v>173</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>166</v>
@@ -3023,7 +3022,7 @@
         <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>100</v>
@@ -3054,13 +3053,13 @@
         <v>88</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>89</v>
@@ -3079,26 +3078,26 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>184</v>
@@ -3110,14 +3109,14 @@
         <v>186</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>188</v>
@@ -3126,19 +3125,19 @@
         <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>189</v>
@@ -3168,10 +3167,10 @@
         <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>89</v>
@@ -3190,26 +3189,26 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>194</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>184</v>
@@ -3221,37 +3220,37 @@
         <v>186</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>189</v>
@@ -3279,10 +3278,10 @@
         <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>89</v>
@@ -3301,26 +3300,26 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>112</v>
@@ -3332,19 +3331,19 @@
         <v>201</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>195</v>
@@ -3356,7 +3355,7 @@
         <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>100</v>
@@ -3380,23 +3379,23 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>207</v>
@@ -3410,77 +3409,77 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>210</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -3493,19 +3492,19 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>134</v>
@@ -3521,38 +3520,38 @@
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>214</v>
@@ -3561,7 +3560,7 @@
         <v>215</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>188</v>
@@ -3570,28 +3569,28 @@
         <v>216</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -3600,20 +3599,20 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>89</v>
@@ -3634,45 +3633,45 @@
         <v>222</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>188</v>
@@ -3681,19 +3680,19 @@
         <v>223</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>224</v>
@@ -3702,7 +3701,7 @@
         <v>225</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -3713,20 +3712,20 @@
         <v>226</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>89</v>
@@ -3747,68 +3746,68 @@
         <v>222</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>230</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>223</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>224</v>
@@ -3817,7 +3816,7 @@
         <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -3826,20 +3825,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>89</v>
@@ -3860,68 +3859,68 @@
         <v>235</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>236</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>237</v>
@@ -3930,7 +3929,7 @@
         <v>238</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -3943,16 +3942,16 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>89</v>
@@ -3973,62 +3972,62 @@
         <v>245</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>239</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>100</v>
@@ -4056,16 +4055,16 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>89</v>
@@ -4086,62 +4085,62 @@
         <v>256</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>250</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>100</v>
@@ -4169,16 +4168,16 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>89</v>
@@ -4199,62 +4198,62 @@
         <v>267</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>261</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>100</v>
@@ -4282,16 +4281,16 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>89</v>
@@ -4312,68 +4311,68 @@
         <v>278</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>272</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>279</v>
@@ -4395,16 +4394,16 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>89</v>
@@ -4425,62 +4424,62 @@
         <v>288</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>282</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>100</v>
@@ -4508,16 +4507,16 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>89</v>
@@ -4538,62 +4537,62 @@
         <v>288</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>293</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>100</v>
@@ -4617,23 +4616,23 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>300</v>
@@ -4651,68 +4650,68 @@
         <v>304</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>299</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>305</v>
@@ -4721,7 +4720,7 @@
         <v>248</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -4734,19 +4733,19 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>308</v>
@@ -4764,68 +4763,68 @@
         <v>312</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>313</v>
@@ -4834,7 +4833,7 @@
         <v>314</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -4843,23 +4842,23 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>316</v>
@@ -4875,77 +4874,77 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>320</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -4958,16 +4957,16 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>89</v>
@@ -4988,68 +4987,68 @@
         <v>327</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>328</v>
@@ -5058,7 +5057,7 @@
         <v>314</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -5067,23 +5066,23 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>207</v>
@@ -5097,77 +5096,77 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>210</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -5180,19 +5179,19 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>134</v>
@@ -5208,77 +5207,77 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>216</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -5291,13 +5290,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>89</v>
@@ -5321,77 +5320,77 @@
         <v>143</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>335</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -5400,23 +5399,23 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>207</v>
@@ -5434,77 +5433,77 @@
         <v>340</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>341</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -5513,7 +5512,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5523,10 +5522,10 @@
         <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>89</v>
@@ -5545,50 +5544,50 @@
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>342</v>
@@ -5600,22 +5599,22 @@
         <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>347</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -5628,19 +5627,19 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>207</v>
@@ -5658,68 +5657,68 @@
         <v>353</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>348</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>354</v>
@@ -5728,7 +5727,7 @@
         <v>355</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -5737,23 +5736,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>180</v>
@@ -5769,26 +5768,26 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>184</v>
@@ -5800,37 +5799,37 @@
         <v>361</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>356</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>354</v>
@@ -5839,7 +5838,7 @@
         <v>362</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
@@ -5848,23 +5847,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>364</v>
@@ -5882,68 +5881,68 @@
         <v>368</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>363</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>354</v>
@@ -5952,7 +5951,7 @@
         <v>369</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
